--- a/Instrumento de evaluación del modelo de métricas felicidad.xlsx
+++ b/Instrumento de evaluación del modelo de métricas felicidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eperez\Documents\Tesis\Instrumento Evaluación Tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B028EB5F-444B-4E9D-AD25-D468B134F4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A478A8-F80B-4844-A203-8A93970E5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="20" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="78">
   <si>
     <t>Grados</t>
   </si>
@@ -491,6 +491,15 @@
   <si>
     <t>Métrica 4 - Indicador del porcentaje de frecuencia de reuniones Scrum (IPFRS)</t>
   </si>
+  <si>
+    <t>Métrica 5</t>
+  </si>
+  <si>
+    <t>Métrica 8</t>
+  </si>
+  <si>
+    <t>Métrica 9</t>
+  </si>
 </sst>
 </file>
 
@@ -679,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -726,10 +735,22 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,31 +777,149 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="372">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -843,27 +982,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -886,2498 +1004,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3663,7 +1289,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACB652B7-2B1F-4697-9997-03E8DD9EB470}" type="CELLRANGE">
+                    <a:fld id="{A52A8531-4A25-45FF-9835-63CB87741714}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3791,7 +1417,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BDBD4235-AA55-46B5-A45E-B53080C27094}" type="CELLRANGE">
+                    <a:fld id="{0A360099-407C-40AE-B7CF-CFA5158A708C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4457,7 +2083,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0F87FDF-72F2-497A-BBA6-B3504335088C}" type="CELLRANGE">
+                    <a:fld id="{08F8B9DE-85C0-440B-9802-904C55545C88}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4585,7 +2211,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3181F366-C93A-4995-8186-8DAA2C338D6A}" type="CELLRANGE">
+                    <a:fld id="{3EEB8A69-F3A5-411E-96F0-0F8AE20FA4D9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5251,7 +2877,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{892EB922-5894-4D83-90DF-257240EE99B4}" type="CELLRANGE">
+                    <a:fld id="{8387BA8D-8D2C-4377-9548-BD04ECADA866}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5379,7 +3005,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7057D6D9-706B-433F-86BE-20575CED94F4}" type="CELLRANGE">
+                    <a:fld id="{E3729919-9623-4795-AFAB-6D7B3CA2EACB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6045,7 +3671,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EF3CADE-E438-4775-A3D7-46B8E3EF31A6}" type="CELLRANGE">
+                    <a:fld id="{6AC896C5-A8C5-4B06-98F3-3C0B6120E0F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6173,7 +3799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C0AF9B0-7DE9-4C00-B7B3-DC5BC56D6ABC}" type="CELLRANGE">
+                    <a:fld id="{89ADB9ED-B612-4A24-A31E-2731A84AB9DB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6839,7 +4465,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3238A6E-B6FD-44F6-9A23-420B3C986524}" type="CELLRANGE">
+                    <a:fld id="{0F6524C4-60D8-497D-81F9-36E29DF5C5AA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6967,7 +4593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A6A0BDA9-DE89-4137-9CB1-2688186DE65D}" type="CELLRANGE">
+                    <a:fld id="{90BBDBE1-BAAB-48CD-A383-29F54B5D79E9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7637,7 +5263,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D34DA89-0F4A-42EE-9A14-BE1D4CC83D77}" type="CELLRANGE">
+                    <a:fld id="{606DA8B5-BCAC-4E2E-9885-50F6C359E62C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7765,7 +5391,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC5A910E-D95B-4335-BE54-BA146545FDB3}" type="CELLRANGE">
+                    <a:fld id="{5EBE1F9F-D656-4282-8121-7FB40D396659}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8431,7 +6057,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECFB6D0E-B19F-42F9-A142-5764ADE047B2}" type="CELLRANGE">
+                    <a:fld id="{463F8732-81D9-4F4E-B4A7-804C6D798ACB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8559,7 +6185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F371FE60-E36F-403D-9147-EF29CF95F352}" type="CELLRANGE">
+                    <a:fld id="{93374ABE-7BE0-46B2-A657-8EC7A426FCD7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9225,7 +6851,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADA7A6EC-4065-42A0-813E-D7FC37B6ED54}" type="CELLRANGE">
+                    <a:fld id="{DA785071-4FBD-4861-BF99-A16792FAF4F6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9353,7 +6979,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBE4BE02-15FD-49EB-B1AC-3ADE9433C709}" type="CELLRANGE">
+                    <a:fld id="{7E7CB52B-F792-4A83-8E53-125A116B0B63}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10019,7 +7645,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FB9BE55-6173-4881-B436-A10C2E44F40F}" type="CELLRANGE">
+                    <a:fld id="{DF1DF32D-134E-4DAC-AF9B-CC8D11B0C477}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10147,7 +7773,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AAD764E-7E38-4DE5-8B30-2FA3925F0DEC}" type="CELLRANGE">
+                    <a:fld id="{7EC5A7E7-659A-4AF4-961C-0148E0174A22}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -16629,7 +14255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EA741-3A04-40A0-85AE-6E746180A8CF}">
   <dimension ref="B4:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E12" sqref="E12:G12"/>
     </sheetView>
   </sheetViews>
@@ -16639,134 +14265,124 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="28">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="18">
         <f>'Métrica 1 (IPRE)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="28">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="18">
         <f>'Métrica 2 (IPDR)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="28">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="18">
         <f>'Métrica 3 (IPRHU)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="28">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="18">
         <f>'Métrica 4 (IPFRS)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="30">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19">
         <f>'Métrica 5 (TPAP)'!C7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="28">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="18">
         <f>'Métrica 6 (IPTAR)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="28">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="18">
         <f>'Métrica 7 (IPTCSIE)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="28">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="18">
         <f>'Métrica 8 (IPTRE)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="28">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="18">
         <f>'Métrica 9 (IPEET)'!C6</f>
         <v>0</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="B4:D4"/>
@@ -16775,55 +14391,22 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="56" id="{BADC08BD-4584-4942-B701-B04CBB334DC6}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.15)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="55" id="{1A0EFCA1-AF4F-4694-B8FC-87215F5CA8E3}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.16, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.5)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="54" id="{9C2A950C-D828-4438-84DF-EA7A82FEDE1B}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.51, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.85)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="53" id="{4AD0B104-67C6-4F49-B6CE-5EE8C0CA919D}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.86, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E7:G7</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="49" id="{43F4CD0B-7236-431C-89E9-0A799034244D}">
             <xm:f>AND('Métrica 1 (IPRE)'!$C$6 &gt;= 0, 'Métrica 1 (IPRE)'!$C$6 &lt;= 0.15)</xm:f>
@@ -16866,6 +14449,92 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>E4:G4</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="16" id="{5FFE0CD2-FFE0-4E80-B7B9-8E69D478F5B3}">
+            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.86, 'Métrica 2 (IPDR)'!$C$6 &lt;= 1)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="13" id="{1211A93A-9F6F-4247-B943-4E0839721B54}">
+            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.15)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{2E0EE2E0-A3E8-4A72-9C55-AD2F6425F8FC}">
+            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.16, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.5)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="15" id="{453C7B6D-D743-4F29-A4A0-306C082535D6}">
+            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.51, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.85)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E5:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="56" id="{BADC08BD-4584-4942-B701-B04CBB334DC6}">
+            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.15)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="53" id="{4AD0B104-67C6-4F49-B6CE-5EE8C0CA919D}">
+            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.86, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 1)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="54" id="{9C2A950C-D828-4438-84DF-EA7A82FEDE1B}">
+            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.51, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.85)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="55" id="{1A0EFCA1-AF4F-4694-B8FC-87215F5CA8E3}">
+            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.16, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.5)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E7:G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="37" id="{F03A5063-4325-4EEB-975D-4EDF170A72E3}">
@@ -16911,135 +14580,6 @@
           <xm:sqref>E8:G8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="29" id="{585071FD-93F8-42B7-8E0D-7379521CA88E}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.86, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="30" id="{90F8D796-DEB8-4E63-AD73-D6935DA834A2}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.51, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.85)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="31" id="{593DECD8-2BE3-4046-817C-6DDCF002F650}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.16, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.5)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="32" id="{33AA83F3-A932-4EC9-B91A-C7354A6A6990}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.15)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E10:G10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{1092A3FD-9A93-467B-8B92-A93355146279}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.15)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="18" id="{1FE898EB-39B7-4D43-93FF-6524C3673CDB}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.16, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.5)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="19" id="{FD940CE3-938F-4110-9C84-4F02304D184B}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.51, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.85)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="20" id="{D9B03E65-B39C-400B-964F-36C08C8C5519}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.86, 'Métrica 2 (IPDR)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E5:G5</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{1211A93A-9F6F-4247-B943-4E0839721B54}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.15)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{2E0EE2E0-A3E8-4A72-9C55-AD2F6425F8FC}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.16, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.5)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="15" id="{453C7B6D-D743-4F29-A4A0-306C082535D6}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.51, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.85)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{5FFE0CD2-FFE0-4E80-B7B9-8E69D478F5B3}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.86, 'Métrica 2 (IPDR)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>E6:G6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{91BE6D4E-CCCE-4710-8A14-6DCA402A6C39}">
             <xm:f>AND('Métrica 6 (IPTAR)'!$C$6 &gt;= 0, 'Métrica 6 (IPTAR)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
@@ -17081,6 +14621,49 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>E9:G9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="30" id="{90F8D796-DEB8-4E63-AD73-D6935DA834A2}">
+            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.51, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.85)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="29" id="{585071FD-93F8-42B7-8E0D-7379521CA88E}">
+            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.86, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 1)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="31" id="{593DECD8-2BE3-4046-817C-6DDCF002F650}">
+            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.16, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.5)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="32" id="{33AA83F3-A932-4EC9-B91A-C7354A6A6990}">
+            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.15)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E10:G10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{8D5971F4-CA01-40EE-9643-60642EBFCA56}">
@@ -17126,6 +14709,26 @@
           <xm:sqref>E11:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{1D90DAA3-72E9-44DD-B974-52375D85308D}">
+            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.51, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.85)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{5AD5D496-0058-4E7B-BE6B-50A049BD09A4}">
+            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.86, 'Métrica 9 (IPEET)'!$C$6 &lt;= 1)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="expression" priority="1" id="{FC16A2A1-A6B0-4D9D-846E-DA8E2DD3762A}">
             <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
@@ -17146,26 +14749,6 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="3" id="{1D90DAA3-72E9-44DD-B974-52375D85308D}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.51, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.85)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{5AD5D496-0058-4E7B-BE6B-50A049BD09A4}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.86, 'Métrica 9 (IPEET)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <xm:sqref>E12:G12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
@@ -17179,7 +14762,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17191,11 +14774,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -17207,11 +14790,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -17249,7 +14832,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -17267,7 +14850,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -17279,10 +14862,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -17442,8 +15025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D608818-CE3C-443A-8070-25523E95D70D}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17455,11 +15038,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -17471,11 +15054,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -17513,7 +15096,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -17531,7 +15114,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -17543,10 +15126,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -17719,11 +15302,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -17735,11 +15318,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -17777,7 +15360,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -17795,7 +15378,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -17807,10 +15390,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -17983,11 +15566,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -17999,11 +15582,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -18041,7 +15624,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -18059,7 +15642,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -18071,10 +15654,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -18247,11 +15830,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -18263,11 +15846,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
@@ -18305,7 +15888,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
@@ -18323,7 +15906,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
@@ -18335,10 +15918,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -18499,7 +16082,7 @@
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18511,11 +16094,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -18527,11 +16110,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>61</v>
       </c>
@@ -18569,7 +16152,7 @@
       <c r="B4" s="15">
         <v>45292</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="26"/>
       <c r="E4" s="10" t="s">
         <v>63</v>
       </c>
@@ -18587,7 +16170,7 @@
       <c r="B5" s="15">
         <v>45292</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="27"/>
       <c r="E5" s="11" t="s">
         <v>64</v>
       </c>
@@ -18605,16 +16188,16 @@
       <c r="B6" s="13">
         <v>0</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="28"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="14">
         <f>IF(B6=0,0,(INT((B4-B5)/30.417))/B6)</f>
         <v>0</v>
@@ -18654,7 +16237,7 @@
       <c r="C50" s="1">
         <v>0</v>
       </c>
-      <c r="F50" s="26">
+      <c r="F50" s="16">
         <v>0</v>
       </c>
       <c r="G50" s="1">
@@ -18673,7 +16256,7 @@
         <f>SIN(B46)</f>
         <v>0</v>
       </c>
-      <c r="F51" s="26">
+      <c r="F51" s="16">
         <v>1</v>
       </c>
       <c r="G51" s="1">
@@ -18681,7 +16264,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="26">
+      <c r="F52" s="16">
         <v>2</v>
       </c>
       <c r="G52" s="1">
@@ -18689,7 +16272,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="26">
+      <c r="F53" s="16">
         <v>3</v>
       </c>
       <c r="G53" s="1">
@@ -18697,7 +16280,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="26">
+      <c r="F54" s="16">
         <v>4</v>
       </c>
       <c r="G54" s="1">
@@ -18705,7 +16288,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="26">
+      <c r="F55" s="16">
         <v>5</v>
       </c>
       <c r="G55" s="1">
@@ -18713,7 +16296,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="26">
+      <c r="F56" s="16">
         <v>6</v>
       </c>
       <c r="G56" s="1">
@@ -18721,7 +16304,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="26">
+      <c r="F57" s="16">
         <v>7</v>
       </c>
       <c r="G57" s="1">
@@ -18729,7 +16312,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="26">
+      <c r="F58" s="16">
         <v>8</v>
       </c>
       <c r="G58" s="1">
@@ -18737,7 +16320,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="26">
+      <c r="F59" s="16">
         <v>9</v>
       </c>
       <c r="G59" s="1">
@@ -18745,7 +16328,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="26">
+      <c r="F60" s="16">
         <v>10</v>
       </c>
       <c r="G60" s="1">
@@ -18753,7 +16336,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F61" s="26"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="1">
         <v>11</v>
       </c>
@@ -18787,11 +16370,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -18803,11 +16386,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -18845,7 +16428,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -18863,7 +16446,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -18875,10 +16458,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -19051,11 +16634,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -19067,11 +16650,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>17</v>
       </c>
@@ -19109,7 +16692,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>15</v>
       </c>
@@ -19127,7 +16710,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
@@ -19139,10 +16722,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>
@@ -19303,7 +16886,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19315,11 +16898,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
@@ -19331,11 +16914,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
@@ -19373,7 +16956,7 @@
       <c r="B4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
@@ -19391,7 +16974,7 @@
       <c r="B5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -19403,10 +16986,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="5">
         <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
         <v>0</v>

--- a/Instrumento de evaluación del modelo de métricas felicidad.xlsx
+++ b/Instrumento de evaluación del modelo de métricas felicidad.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eperez\Documents\Tesis\Instrumento Evaluación Tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A478A8-F80B-4844-A203-8A93970E5785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8C6CC5-76C3-48CB-A409-3589243E3DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="20" r:id="rId1"/>
-    <sheet name="Métrica 1 (IPRE)" sheetId="10" r:id="rId2"/>
-    <sheet name="Métrica 2 (IPDR)" sheetId="11" r:id="rId3"/>
-    <sheet name="Métrica 3 (IPRHU)" sheetId="12" r:id="rId4"/>
-    <sheet name="Métrica 4 (IPFRS)" sheetId="13" r:id="rId5"/>
-    <sheet name="Métrica 5 (TPAP)" sheetId="19" r:id="rId6"/>
-    <sheet name="Métrica 6 (IPTAR)" sheetId="15" r:id="rId7"/>
-    <sheet name="Métrica 7 (IPTCSIE)" sheetId="14" r:id="rId8"/>
-    <sheet name="Métrica 8 (IPTRE)" sheetId="16" r:id="rId9"/>
-    <sheet name="Métrica 9 (IPEET)" sheetId="17" r:id="rId10"/>
+    <sheet name="Métrica 1 (PRE)" sheetId="10" r:id="rId2"/>
+    <sheet name="Métrica 2 (PDR)" sheetId="11" r:id="rId3"/>
+    <sheet name="Métrica 3 (PRH)" sheetId="12" r:id="rId4"/>
+    <sheet name="Métrica 4 (PFR)" sheetId="13" r:id="rId5"/>
+    <sheet name="Métrica 5 (TPP)" sheetId="19" r:id="rId6"/>
+    <sheet name="Métrica 6 (PTR)" sheetId="15" r:id="rId7"/>
+    <sheet name="Métrica 7 (PTS)" sheetId="14" r:id="rId8"/>
+    <sheet name="Métrica 8 (PTE)" sheetId="16" r:id="rId9"/>
+    <sheet name="Métrica 9 (PEE)" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,39 +67,6 @@
   </si>
   <si>
     <t>Fórmula</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número de profesionales que abandonaron el equipo en un periodo de tiempo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NPAE)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número promedio de profesionales en el equipo en un periodo de tiempo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NPPE)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Indicador del porcentaje de rotación en el equipo (IPRE): </t>
   </si>
   <si>
     <t>Rango</t>
@@ -174,79 +141,16 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Número total de decisiones tomadas en un periodo de tiempo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTDT)</t>
-    </r>
-  </si>
-  <si>
     <t>Indicador del porcentaje de decisiones retrasadas (IPDR):</t>
   </si>
   <si>
     <t>Métrica 3</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Número de historias de usuario rechazadas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NHUR)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número total de historias de usuario completadas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTHUC)</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicador del porcentaje de rechazo de historias de usuario (IPRHU):</t>
-  </si>
-  <si>
     <t>Categoría: comunicación</t>
   </si>
   <si>
     <t>Métrica 4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número total de reuniones Scrum </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTRS)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -264,88 +168,16 @@
     </r>
   </si>
   <si>
-    <t>Indicador del porcentaje de frecuencia de reuniones Scrum (IPFRS):</t>
-  </si>
-  <si>
     <t>Categoría: autogestión</t>
   </si>
   <si>
     <t>Métrica 7</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Número de tareas asociadas al retrabajo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTCSIE)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número total de tareas completadas </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTTC)</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicador del porcentaje de tareas completadas sin intervención externa (IPTCSIE):</t>
-  </si>
-  <si>
-    <t>Indicador del porcentaje de tareas asociadas al retrabajo (IPTAR):</t>
-  </si>
-  <si>
     <t>Métrica 6</t>
   </si>
   <si>
     <t>Categoría: deuda técnica</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número de tareas asociadas al retrabajo </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTAR)</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicador del porcentaje de tareas que requieren la intervención de un experto (IPTRE):</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Número de tareas que requieren la intervención de un experto </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(NTRE)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -360,24 +192,6 @@
         <family val="2"/>
       </rPr>
       <t>(NTT)</t>
-    </r>
-  </si>
-  <si>
-    <t>Indicador del porcentaje de eficiencia en la entrega de tareas (IPEET):</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total de puntos de historia de usuario completados </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(TPHUC)</t>
     </r>
   </si>
   <si>
@@ -397,21 +211,6 @@
   </si>
   <si>
     <t>Categoría: experticia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fecha en la que el nuevo profesional del equipo alcanza la productividad </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(FPAP)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -462,36 +261,6 @@
     <t>7 o más Sprints</t>
   </si>
   <si>
-    <t>Tiempo que le toma a un profesional alcanzar la productividad (Sprints) (TPAP):</t>
-  </si>
-  <si>
-    <t>Métrica 3 - Indicador del porcentaje de rechazo de historias de usuario (IPRHU)</t>
-  </si>
-  <si>
-    <t>Métrica 2 - Indicador del porcentaje de decisiones retrasadas (IPDR)</t>
-  </si>
-  <si>
-    <t>Métrica 1 - Indicador del porcentaje de rotación en el equipo (IPRE)</t>
-  </si>
-  <si>
-    <t>Métrica 9 - Indicador del porcentaje de eficiencia en la entrega de tareas (IPEET)</t>
-  </si>
-  <si>
-    <t>Métrica 8 - Indicador del porcentaje de tareas que requieren la intervención de un experto (IPTRE)</t>
-  </si>
-  <si>
-    <t>Métrica 7 - Indicador del porcentaje de tareas completadas sin intervención externa (IPTCSIE)</t>
-  </si>
-  <si>
-    <t>Métrica 6 - Indicador del porcentaje de tareas asociadas al retrabajo (IPTAR)</t>
-  </si>
-  <si>
-    <t>Métrica 5 - Tiempo que le toma a un profesional alcanzar la productividad (Sprints) (TPAP)</t>
-  </si>
-  <si>
-    <t>Métrica 4 - Indicador del porcentaje de frecuencia de reuniones Scrum (IPFRS)</t>
-  </si>
-  <si>
     <t>Métrica 5</t>
   </si>
   <si>
@@ -499,6 +268,237 @@
   </si>
   <si>
     <t>Métrica 9</t>
+  </si>
+  <si>
+    <t>Métrica 1 - Indicador del porcentaje de rotación en el equipo (PRE)</t>
+  </si>
+  <si>
+    <t>Métrica 2 - Indicador del porcentaje de decisiones retrasadas (PDR)</t>
+  </si>
+  <si>
+    <t>Métrica 3 - Indicador del porcentaje de rechazo de historias de usuario (PRH)</t>
+  </si>
+  <si>
+    <t>Métrica 4 - Indicador del porcentaje de frecuencia de reuniones Scrum (PFR)</t>
+  </si>
+  <si>
+    <t>Métrica 5 - Tiempo que le toma a un profesional alcanzar la productividad (Sprints) (TPP)</t>
+  </si>
+  <si>
+    <t>Métrica 6 - Indicador del porcentaje de tareas asociadas al retrabajo (PTR)</t>
+  </si>
+  <si>
+    <t>Métrica 7 - Indicador del porcentaje de tareas completadas sin intervención externa (PTS)</t>
+  </si>
+  <si>
+    <t>Métrica 8 - Indicador del porcentaje de tareas que requieren la intervención de un experto (PTE)</t>
+  </si>
+  <si>
+    <t>Métrica 9 - Indicador del porcentaje de eficiencia en la entrega de tareas (PEE)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número de profesionales que abandonaron el equipo en un periodo de tiempo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NPA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número promedio de profesionales en el equipo en un periodo de tiempo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NPE)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicador del porcentaje de rotación en el equipo (PRE): </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número total de decisiones tomadas en un periodo de tiempo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NDT)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de rechazo de historias de usuario (PRH):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número de historias de usuario rechazadas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NHR)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número total de historias de usuario completadas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NHC)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número total de reuniones Scrum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NTR)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de frecuencia de reuniones Scrum (PFR):</t>
+  </si>
+  <si>
+    <t>Tiempo que le toma a un profesional alcanzar la productividad (Sprints) (TPP):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fecha en la que el nuevo profesional del equipo alcanza la productividad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(FPP)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de eficiencia en la entrega de tareas (PEE):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total de puntos de historia de usuario completados </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(TPH)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de tareas que requieren la intervención de un experto (PTE):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número de tareas que requieren la intervención de un experto </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NTE)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de tareas completadas sin intervención externa (PTS):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número de tareas asociadas al retrabajo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NTS)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número total de tareas completadas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(NTC)</t>
+    </r>
+  </si>
+  <si>
+    <t>Indicador del porcentaje de tareas asociadas al retrabajo (PTR):</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Número de tareas asociadas al retrabajo </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(TAR)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -688,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,40 +777,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -836,34 +809,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -926,6 +871,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -982,6 +934,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1031,7 +1032,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1289,12 +1290,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A52A8531-4A25-45FF-9835-63CB87741714}" type="CELLRANGE">
+                    <a:fld id="{D733C88C-F6E8-4B34-8AFE-0CEFB07875A2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1417,12 +1418,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0A360099-407C-40AE-B7CF-CFA5158A708C}" type="CELLRANGE">
+                    <a:fld id="{6F358C4C-7D75-400A-B083-37E4343B731B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1449,7 +1450,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -1492,7 +1493,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -1510,7 +1511,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 1 (IPRE)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 1 (PRE)'!$G$50:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1552,7 +1553,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 1 (IPRE)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 1 (PRE)'!$H$50:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1598,7 +1599,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 1 (IPRE)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 1 (PRE)'!$G$50:$G$60</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -1690,7 +1691,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 1 (IPRE)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 1 (PRE)'!$C$50:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1705,7 +1706,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 1 (IPRE)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 1 (PRE)'!$D$50:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1811,7 +1812,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1825,7 +1826,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2083,12 +2084,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{08F8B9DE-85C0-440B-9802-904C55545C88}" type="CELLRANGE">
+                    <a:fld id="{1CCD8F7B-A8C0-46C8-8DC1-695455731E70}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2211,12 +2212,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EEB8A69-F3A5-411E-96F0-0F8AE20FA4D9}" type="CELLRANGE">
+                    <a:fld id="{8FB8205D-1472-4057-8867-6CF9421823EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2243,7 +2244,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2286,7 +2287,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -2304,7 +2305,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 2 (IPDR)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 2 (PDR)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2346,7 +2347,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 2 (IPDR)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 2 (PDR)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2392,7 +2393,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 2 (IPDR)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 2 (PDR)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -2484,7 +2485,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 2 (IPDR)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 2 (PDR)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2499,7 +2500,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 2 (IPDR)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 2 (PDR)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2605,7 +2606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2619,7 +2620,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2877,12 +2878,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8387BA8D-8D2C-4377-9548-BD04ECADA866}" type="CELLRANGE">
+                    <a:fld id="{C71D5313-F896-4E6E-BCAB-31FD8AB40CDE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3005,12 +3006,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E3729919-9623-4795-AFAB-6D7B3CA2EACB}" type="CELLRANGE">
+                    <a:fld id="{495EADB5-0C7A-4FC2-8CF6-C08D704D50D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3037,7 +3038,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3080,7 +3081,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3098,7 +3099,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 3 (IPRHU)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 3 (PRH)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3140,7 +3141,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 3 (IPRHU)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 3 (PRH)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3186,7 +3187,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 3 (IPRHU)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 3 (PRH)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -3278,7 +3279,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 3 (IPRHU)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 3 (PRH)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3293,7 +3294,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 3 (IPRHU)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 3 (PRH)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3399,7 +3400,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3413,7 +3414,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3671,12 +3672,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6AC896C5-A8C5-4B06-98F3-3C0B6120E0F7}" type="CELLRANGE">
+                    <a:fld id="{1F72F82E-8902-483D-852C-65383103E397}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3799,12 +3800,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89ADB9ED-B612-4A24-A31E-2731A84AB9DB}" type="CELLRANGE">
+                    <a:fld id="{AC6AAE1B-8ECC-452B-BE4F-BD916F1E24EF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3831,7 +3832,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -3874,7 +3875,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -3892,7 +3893,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 4 (IPFRS)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 4 (PFR)'!$G$50:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3934,7 +3935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 4 (IPFRS)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 4 (PFR)'!$H$50:$H$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3980,7 +3981,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 4 (IPFRS)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 4 (PFR)'!$G$50:$G$60</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -4072,7 +4073,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 4 (IPFRS)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 4 (PFR)'!$C$50:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4087,7 +4088,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 4 (IPFRS)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 4 (PFR)'!$D$50:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4193,7 +4194,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4207,7 +4208,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4465,12 +4466,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0F6524C4-60D8-497D-81F9-36E29DF5C5AA}" type="CELLRANGE">
+                    <a:fld id="{D78E3002-4426-463C-8BFC-C31FF3FE2D00}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4593,12 +4594,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90BBDBE1-BAAB-48CD-A383-29F54B5D79E9}" type="CELLRANGE">
+                    <a:fld id="{023F70EE-DE24-4D38-AF53-851E8207625D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4625,7 +4626,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -4668,7 +4669,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -4686,7 +4687,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 5 (TPAP)'!$F$50:$F$61</c:f>
+              <c:f>'Métrica 5 (TPP)'!$F$50:$F$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4728,7 +4729,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 5 (TPAP)'!$G$50:$G$61</c:f>
+              <c:f>'Métrica 5 (TPP)'!$G$50:$G$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4774,7 +4775,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 5 (TPAP)'!$F$50:$F$60</c15:f>
+                <c15:f>'Métrica 5 (TPP)'!$F$50:$F$60</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -4863,7 +4864,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 5 (TPAP)'!$B$50:$B$51</c:f>
+              <c:f>'Métrica 5 (TPP)'!$B$50:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4878,7 +4879,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 5 (TPAP)'!$C$50:$C$51</c:f>
+              <c:f>'Métrica 5 (TPP)'!$C$50:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4991,7 +4992,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5005,7 +5006,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5263,12 +5264,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{606DA8B5-BCAC-4E2E-9885-50F6C359E62C}" type="CELLRANGE">
+                    <a:fld id="{E6ABE7A9-D556-4B41-B8E5-0FB4BD2C333F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5391,12 +5392,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EBE1F9F-D656-4282-8121-7FB40D396659}" type="CELLRANGE">
+                    <a:fld id="{D8FA291E-7D05-4854-98FD-76DA70021405}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5423,7 +5424,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -5466,7 +5467,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -5484,7 +5485,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 6 (IPTAR)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 6 (PTR)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5526,7 +5527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 6 (IPTAR)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 6 (PTR)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5572,7 +5573,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 6 (IPTAR)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 6 (PTR)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -5664,7 +5665,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 6 (IPTAR)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 6 (PTR)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5679,7 +5680,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 6 (IPTAR)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 6 (PTR)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5785,7 +5786,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5799,7 +5800,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6057,12 +6058,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{463F8732-81D9-4F4E-B4A7-804C6D798ACB}" type="CELLRANGE">
+                    <a:fld id="{6980FA09-7102-44FD-8700-F22907D6E231}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6185,12 +6186,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{93374ABE-7BE0-46B2-A657-8EC7A426FCD7}" type="CELLRANGE">
+                    <a:fld id="{9763F394-703D-4FF0-A3AA-ADB67ADE0DD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6217,7 +6218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6260,7 +6261,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -6278,7 +6279,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 7 (IPTCSIE)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 7 (PTS)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6320,7 +6321,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 7 (IPTCSIE)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 7 (PTS)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6366,7 +6367,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 7 (IPTCSIE)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 7 (PTS)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -6458,7 +6459,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 7 (IPTCSIE)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 7 (PTS)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6473,7 +6474,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 7 (IPTCSIE)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 7 (PTS)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6579,7 +6580,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6593,7 +6594,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6851,12 +6852,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DA785071-4FBD-4861-BF99-A16792FAF4F6}" type="CELLRANGE">
+                    <a:fld id="{C1CF412E-9989-4299-85E5-D4C1AABB0AB1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6979,12 +6980,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7E7CB52B-F792-4A83-8E53-125A116B0B63}" type="CELLRANGE">
+                    <a:fld id="{6BB23333-150E-4BC1-8E7B-5F6139D8326E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7011,7 +7012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7054,7 +7055,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7072,7 +7073,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 8 (IPTRE)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 8 (PTE)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7114,7 +7115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 8 (IPTRE)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 8 (PTE)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7160,7 +7161,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 8 (IPTRE)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 8 (PTE)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -7252,7 +7253,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 8 (IPTRE)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 8 (PTE)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7267,7 +7268,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 8 (IPTRE)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 8 (PTE)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7373,7 +7374,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7387,7 +7388,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7645,12 +7646,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF1DF32D-134E-4DAC-AF9B-CC8D11B0C477}" type="CELLRANGE">
+                    <a:fld id="{658097EB-A708-4840-8F6F-4014D5D1C3C2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7773,12 +7774,12 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EC5A7E7-659A-4AF4-961C-0148E0174A22}" type="CELLRANGE">
+                    <a:fld id="{C95BDF81-A8CC-4D00-8ED6-6B77C68226D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7805,7 +7806,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:endParaRPr lang="es-419"/>
+                    <a:endParaRPr lang="es-CO"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -7848,7 +7849,7 @@
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-419"/>
+                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:txPr>
             <c:showLegendKey val="0"/>
@@ -7866,7 +7867,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Métrica 9 (IPEET)'!$F$49:$F$60</c:f>
+              <c:f>'Métrica 9 (PEE)'!$F$49:$F$60</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7908,7 +7909,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Métrica 9 (IPEET)'!$G$49:$G$60</c:f>
+              <c:f>'Métrica 9 (PEE)'!$G$49:$G$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -7954,7 +7955,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Métrica 9 (IPEET)'!$F$49:$F$59</c15:f>
+                <c15:f>'Métrica 9 (PEE)'!$F$49:$F$59</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -8046,7 +8047,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Métrica 9 (IPEET)'!$B$49:$B$50</c:f>
+              <c:f>'Métrica 9 (PEE)'!$B$49:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -8061,7 +8062,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Métrica 9 (IPEET)'!$C$49:$C$50</c:f>
+              <c:f>'Métrica 9 (PEE)'!$C$49:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -8167,7 +8168,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-419"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13213,15 +13214,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>6628</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>367748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1411358</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13247,46 +13248,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>64489</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>159027</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212035</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>205409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1338469</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>205408</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1202635</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>105686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8555F5-745A-7E27-E7BA-906D4064067B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBA93BC-8723-5CD5-3B59-8BCE3CCC07E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3940750" y="1311966"/>
-          <a:ext cx="1273980" cy="430694"/>
+          <a:off x="4088296" y="1358348"/>
+          <a:ext cx="990600" cy="284590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13334,46 +13362,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>46380</xdr:colOff>
+      <xdr:colOff>205409</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145776</xdr:rowOff>
+      <xdr:rowOff>225286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1420483</xdr:colOff>
+      <xdr:colOff>1218869</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>252115</xdr:rowOff>
+      <xdr:rowOff>125564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBFD1E78-7F85-FCAA-619C-4798B464CABC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E05BBA-CE53-B718-B0F4-12939B8EF8B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3922641" y="1298715"/>
-          <a:ext cx="1374103" cy="490652"/>
+          <a:off x="4081670" y="1378225"/>
+          <a:ext cx="1013460" cy="284591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13421,46 +13476,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39757</xdr:colOff>
+      <xdr:colOff>172278</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>192157</xdr:rowOff>
+      <xdr:rowOff>212035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1400365</xdr:colOff>
+      <xdr:colOff>1193358</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>193528</xdr:rowOff>
+      <xdr:rowOff>112312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5771C6-2B06-0288-D8E2-F554D3BD74FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72A16B7-037C-BDA8-246B-727D238A8C3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3916018" y="1345096"/>
-          <a:ext cx="1360608" cy="385684"/>
+          <a:off x="4048539" y="1364974"/>
+          <a:ext cx="1021080" cy="284590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13472,15 +13554,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>6628</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>367748</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>1411358</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>178905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13508,46 +13590,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>39755</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>198783</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>225287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1420033</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>166793</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1182757</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>125564</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8CFDF9-0D9A-383D-0342-130DCE43964A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18F666CA-8707-BDA9-3F38-33D7803ED827}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3916016" y="1351722"/>
-          <a:ext cx="1380278" cy="352323"/>
+          <a:off x="4068418" y="1378226"/>
+          <a:ext cx="990600" cy="284590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13595,46 +13704,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>52629</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>377688</xdr:rowOff>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1365688</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>29694</xdr:rowOff>
+      <xdr:colOff>1163871</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>324346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280C2FC2-FA23-46F0-9535-77474156EC84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E29C830-921B-129C-B74E-205158D88596}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3931209" y="1520688"/>
-          <a:ext cx="1313059" cy="414006"/>
+          <a:off x="4041912" y="1577008"/>
+          <a:ext cx="998220" cy="284590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13682,46 +13818,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19879</xdr:colOff>
+      <xdr:colOff>198783</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>189954</xdr:rowOff>
+      <xdr:rowOff>218661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1391478</xdr:colOff>
+      <xdr:colOff>1181763</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>208597</xdr:rowOff>
+      <xdr:rowOff>126559</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53425C7A-F99A-8F5B-6CE6-DD4427D75511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A70D31-30A8-07A2-3A3B-33C39239BA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3896140" y="1342893"/>
-          <a:ext cx="1371599" cy="402956"/>
+          <a:off x="4075044" y="1371600"/>
+          <a:ext cx="982980" cy="292211"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13769,46 +13932,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39756</xdr:colOff>
+      <xdr:colOff>218661</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>199026</xdr:rowOff>
+      <xdr:rowOff>225287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1351721</xdr:colOff>
+      <xdr:colOff>1186401</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>167181</xdr:rowOff>
+      <xdr:rowOff>133184</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EDF7B65-978B-7D51-F238-CFD5E57A5280}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB293A5F-A066-36D6-1D9E-44F950328BCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3916017" y="1351965"/>
-          <a:ext cx="1311965" cy="352468"/>
+          <a:off x="4094922" y="1378226"/>
+          <a:ext cx="967740" cy="292210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13856,46 +14046,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39757</xdr:colOff>
+      <xdr:colOff>218660</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:rowOff>212034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:colOff>1201640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>222256</xdr:rowOff>
+      <xdr:rowOff>112312</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D5E998-EC8A-CDAB-2AB6-21E67451585E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA969D84-A54B-A533-EE10-FE3F4866C71D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3916018" y="1318591"/>
-          <a:ext cx="1331843" cy="440917"/>
+          <a:off x="4094921" y="1364973"/>
+          <a:ext cx="982980" cy="284591"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -13943,46 +14160,73 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>39757</xdr:colOff>
+      <xdr:colOff>198783</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>179924</xdr:rowOff>
+      <xdr:rowOff>225288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1391479</xdr:colOff>
+      <xdr:colOff>1189383</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190787</xdr:rowOff>
+      <xdr:rowOff>125565</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA377C3-07E6-9282-31E2-1B96AAD2B5EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CCFD8DA-C526-DA53-A68C-96071A2AAEA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3916018" y="1332863"/>
-          <a:ext cx="1351722" cy="395176"/>
+          <a:off x="4075044" y="1378227"/>
+          <a:ext cx="990600" cy="284590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -14253,10 +14497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2EA741-3A04-40A0-85AE-6E746180A8CF}">
-  <dimension ref="B4:G12"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:G12"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14264,14 +14508,17 @@
     <col min="2" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D2" s="30"/>
+    </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
       <c r="E4" s="18">
-        <f>'Métrica 1 (IPRE)'!C6</f>
+        <f>'Métrica 1 (PRE)'!D7</f>
         <v>0</v>
       </c>
       <c r="F4" s="19"/>
@@ -14279,12 +14526,12 @@
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="20" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="18">
-        <f>'Métrica 2 (IPDR)'!C6</f>
+        <f>'Métrica 2 (PDR)'!C6</f>
         <v>0</v>
       </c>
       <c r="F5" s="19"/>
@@ -14292,12 +14539,12 @@
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="20" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="18">
-        <f>'Métrica 3 (IPRHU)'!C6</f>
+        <f>'Métrica 3 (PRH)'!C6</f>
         <v>0</v>
       </c>
       <c r="F6" s="19"/>
@@ -14305,12 +14552,12 @@
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="20" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
       <c r="E7" s="18">
-        <f>'Métrica 4 (IPFRS)'!C6</f>
+        <f>'Métrica 4 (PFR)'!D7</f>
         <v>0</v>
       </c>
       <c r="F7" s="19"/>
@@ -14318,12 +14565,12 @@
     </row>
     <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="20" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="19">
-        <f>'Métrica 5 (TPAP)'!C7</f>
+        <f>'Métrica 5 (TPP)'!C7</f>
         <v>0</v>
       </c>
       <c r="F8" s="19"/>
@@ -14331,12 +14578,12 @@
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
       <c r="E9" s="18">
-        <f>'Métrica 6 (IPTAR)'!C6</f>
+        <f>'Métrica 6 (PTR)'!C6</f>
         <v>0</v>
       </c>
       <c r="F9" s="19"/>
@@ -14344,12 +14591,12 @@
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
       <c r="E10" s="18">
-        <f>'Métrica 7 (IPTCSIE)'!C6</f>
+        <f>'Métrica 7 (PTS)'!C6</f>
         <v>0</v>
       </c>
       <c r="F10" s="19"/>
@@ -14357,12 +14604,12 @@
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="20" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="18">
-        <f>'Métrica 8 (IPTRE)'!C6</f>
+        <f>'Métrica 8 (PTE)'!C6</f>
         <v>0</v>
       </c>
       <c r="F11" s="19"/>
@@ -14370,12 +14617,12 @@
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="20" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="18">
-        <f>'Métrica 9 (IPEET)'!C6</f>
+        <f>'Métrica 9 (PEE)'!C6</f>
         <v>0</v>
       </c>
       <c r="F12" s="19"/>
@@ -14383,6 +14630,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="B4:D4"/>
@@ -14396,11 +14648,6 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14409,7 +14656,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="49" id="{43F4CD0B-7236-431C-89E9-0A799034244D}">
-            <xm:f>AND('Métrica 1 (IPRE)'!$C$6 &gt;= 0, 'Métrica 1 (IPRE)'!$C$6 &lt;= 0.15)</xm:f>
+            <xm:f>AND('Métrica 1 (PRE)'!$D$7 &gt;= 0, 'Métrica 1 (PRE)'!$D$7 &lt;= 0.15)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14419,7 +14666,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="50" id="{60BD98DE-E540-4679-A4CD-EDDDE5A509B9}">
-            <xm:f>AND('Métrica 1 (IPRE)'!$C$6 &gt;= 0.16, 'Métrica 1 (IPRE)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 1 (PRE)'!$D$7 &gt;= 0.16, 'Métrica 1 (PRE)'!$D$7 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14429,7 +14676,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="51" id="{508D4710-A27F-4D38-A24C-E8B0081891C1}">
-            <xm:f>AND('Métrica 1 (IPRE)'!$C$6 &gt;= 0.51, 'Métrica 1 (IPRE)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 1 (PRE)'!$D$7 &gt;= 0.51, 'Métrica 1 (PRE)'!$D$7 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14439,7 +14686,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="52" id="{AC20F3D3-FA5E-4B38-868B-10B7F1E70D92}">
-            <xm:f>AND('Métrica 1 (IPRE)'!$C$6 &gt;= 0.86, 'Métrica 1 (IPRE)'!$C$6 &lt;= 1)</xm:f>
+            <xm:f>AND('Métrica 1 (PRE)'!$D$7 &gt;= 0.86, 'Métrica 1 (PRE)'!$D$7 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14451,18 +14698,8 @@
           <xm:sqref>E4:G4</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="16" id="{5FFE0CD2-FFE0-4E80-B7B9-8E69D478F5B3}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.86, 'Métrica 2 (IPDR)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="expression" priority="13" id="{1211A93A-9F6F-4247-B943-4E0839721B54}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.15)</xm:f>
+            <xm:f>AND('Métrica 2 (PDR)'!$C$6 &gt;= 0, 'Métrica 2 (PDR)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14472,7 +14709,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="14" id="{2E0EE2E0-A3E8-4A72-9C55-AD2F6425F8FC}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.16, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 2 (PDR)'!$C$6 &gt;= 0.16, 'Métrica 2 (PDR)'!$C$6 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14482,7 +14719,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="15" id="{453C7B6D-D743-4F29-A4A0-306C082535D6}">
-            <xm:f>AND('Métrica 2 (IPDR)'!$C$6 &gt;= 0.51, 'Métrica 2 (IPDR)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 2 (PDR)'!$C$6 &gt;= 0.51, 'Métrica 2 (PDR)'!$C$6 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14491,11 +14728,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E5:G6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="56" id="{BADC08BD-4584-4942-B701-B04CBB334DC6}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.15)</xm:f>
+          <x14:cfRule type="expression" priority="16" id="{5FFE0CD2-FFE0-4E80-B7B9-8E69D478F5B3}">
+            <xm:f>AND('Métrica 2 (PDR)'!$C$6 &gt;= 0.86, 'Métrica 2 (PDR)'!$C$6 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14504,8 +14738,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <xm:sqref>E5:G6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="53" id="{4AD0B104-67C6-4F49-B6CE-5EE8C0CA919D}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.86, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 1)</xm:f>
+            <xm:f>AND('Métrica 4 (PFR)'!$D$7 &gt;= 0.86, 'Métrica 4 (PFR)'!$D$7 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14515,7 +14752,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="54" id="{9C2A950C-D828-4438-84DF-EA7A82FEDE1B}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.51, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 4 (PFR)'!$D$7 &gt;= 0.51, 'Métrica 4 (PFR)'!$D$7 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14525,7 +14762,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="55" id="{1A0EFCA1-AF4F-4694-B8FC-87215F5CA8E3}">
-            <xm:f>AND('Métrica 4 (IPFRS)'!$C$6 &gt;= 0.16, 'Métrica 4 (IPFRS)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 4 (PFR)'!$D$7 &gt;= 0.16, 'Métrica 4 (PFR)'!$D$7 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14534,11 +14771,21 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
+          <x14:cfRule type="expression" priority="56" id="{BADC08BD-4584-4942-B701-B04CBB334DC6}">
+            <xm:f>AND('Métrica 4 (PFR)'!$D$7 &gt;= 0, 'Métrica 4 (PFR)'!$D$7 &lt;= 0.15)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <xm:sqref>E7:G7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="37" id="{F03A5063-4325-4EEB-975D-4EDF170A72E3}">
-            <xm:f>AND('Métrica 5 (TPAP)'!$C$7 &gt;= 0, 'Métrica 5 (TPAP)'!$C$7 &lt;= 2)</xm:f>
+            <xm:f>AND('Métrica 5 (TPP)'!$C$7 &gt;= 0, 'Métrica 5 (TPP)'!$C$7 &lt;= 2)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14548,7 +14795,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="38" id="{173B0EA9-7A29-41DA-89E3-41C5D4D6EAD8}">
-            <xm:f>AND('Métrica 5 (TPAP)'!$C$7 &gt;= 3, 'Métrica 5 (TPAP)'!$C$7 &lt;= 4)</xm:f>
+            <xm:f>AND('Métrica 5 (TPP)'!$C$7 &gt;= 3, 'Métrica 5 (TPP)'!$C$7 &lt;= 4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14558,7 +14805,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="39" id="{E0D01F75-9B1A-435F-93D1-5E4B378F7E32}">
-            <xm:f>AND('Métrica 5 (TPAP)'!$C$7 &gt;= 5, 'Métrica 5 (TPAP)'!$C$7 &lt;= 6)</xm:f>
+            <xm:f>AND('Métrica 5 (TPP)'!$C$7 &gt;= 5, 'Métrica 5 (TPP)'!$C$7 &lt;= 6)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14568,7 +14815,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="40" id="{2DA058BE-F7D7-4490-8DCA-6F65272050AE}">
-            <xm:f>'Métrica 5 (TPAP)'!$C$7 &gt;= 7</xm:f>
+            <xm:f>'Métrica 5 (TPP)'!$C$7 &gt;= 7</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14581,7 +14828,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{91BE6D4E-CCCE-4710-8A14-6DCA402A6C39}">
-            <xm:f>AND('Métrica 6 (IPTAR)'!$C$6 &gt;= 0, 'Métrica 6 (IPTAR)'!$C$6 &lt;= 0.15)</xm:f>
+            <xm:f>AND('Métrica 6 (PTR)'!$C$6 &gt;= 0, 'Métrica 6 (PTR)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14591,7 +14838,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="10" id="{64F2E7FF-3BB5-4572-AF34-9375E1ABFF47}">
-            <xm:f>AND('Métrica 6 (IPTAR)'!$C$6 &gt;= 0.16, 'Métrica 6 (IPTAR)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 6 (PTR)'!$C$6 &gt;= 0.16, 'Métrica 6 (PTR)'!$C$6 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14601,7 +14848,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="11" id="{CCD8CF40-F957-43C8-A808-2DA2BC479003}">
-            <xm:f>AND('Métrica 6 (IPTAR)'!$C$6 &gt;= 0.51, 'Métrica 6 (IPTAR)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 6 (PTR)'!$C$6 &gt;= 0.51, 'Métrica 6 (PTR)'!$C$6 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14611,7 +14858,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="12" id="{9CDBFF1E-94F3-469E-87BE-4049D06F3DD3}">
-            <xm:f>AND('Métrica 6 (IPTAR)'!$C$6 &gt;= 0.86, 'Métrica 6 (IPTAR)'!$C$6 &lt;= 1)</xm:f>
+            <xm:f>AND('Métrica 6 (PTR)'!$C$6 &gt;= 0.86, 'Métrica 6 (PTR)'!$C$6 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14623,8 +14870,18 @@
           <xm:sqref>E9:G9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="29" id="{585071FD-93F8-42B7-8E0D-7379521CA88E}">
+            <xm:f>AND('Métrica 7 (PTS)'!$C$6 &gt;= 0.86, 'Métrica 7 (PTS)'!$C$6 &lt;= 1)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="expression" priority="30" id="{90F8D796-DEB8-4E63-AD73-D6935DA834A2}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.51, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 7 (PTS)'!$C$6 &gt;= 0.51, 'Métrica 7 (PTS)'!$C$6 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14633,18 +14890,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="29" id="{585071FD-93F8-42B7-8E0D-7379521CA88E}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.86, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 1)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
           <x14:cfRule type="expression" priority="31" id="{593DECD8-2BE3-4046-817C-6DDCF002F650}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0.16, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 7 (PTS)'!$C$6 &gt;= 0.16, 'Métrica 7 (PTS)'!$C$6 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14654,7 +14901,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="32" id="{33AA83F3-A932-4EC9-B91A-C7354A6A6990}">
-            <xm:f>AND('Métrica 7 (IPTCSIE)'!$C$6 &gt;= 0, 'Métrica 7 (IPTCSIE)'!$C$6 &lt;= 0.15)</xm:f>
+            <xm:f>AND('Métrica 7 (PTS)'!$C$6 &gt;= 0, 'Métrica 7 (PTS)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14667,7 +14914,7 @@
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="5" id="{8D5971F4-CA01-40EE-9643-60642EBFCA56}">
-            <xm:f>AND('Métrica 8 (IPTRE)'!$C$6 &gt;= 0, 'Métrica 8 (IPTRE)'!$C$6 &lt;= 0.15)</xm:f>
+            <xm:f>AND('Métrica 8 (PTE)'!$C$6 &gt;= 0, 'Métrica 8 (PTE)'!$C$6 &lt;= 0.15)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14677,7 +14924,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{4BE2426B-55E9-4BA1-A5FF-31048A3DDD52}">
-            <xm:f>AND('Métrica 8 (IPTRE)'!$C$6 &gt;= 0.16, 'Métrica 8 (IPTRE)'!$C$6 &lt;= 0.5)</xm:f>
+            <xm:f>AND('Métrica 8 (PTE)'!$C$6 &gt;= 0.16, 'Métrica 8 (PTE)'!$C$6 &lt;= 0.5)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14687,7 +14934,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="7" id="{4C6AB63B-7BFD-474A-BDE2-8D7047F57B95}">
-            <xm:f>AND('Métrica 8 (IPTRE)'!$C$6 &gt;= 0.51, 'Métrica 8 (IPTRE)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 8 (PTE)'!$C$6 &gt;= 0.51, 'Métrica 8 (PTE)'!$C$6 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14697,7 +14944,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="8" id="{64F15284-2EE8-490C-AB0C-3D878529DADB}">
-            <xm:f>AND('Métrica 8 (IPTRE)'!$C$6 &gt;= 0.86, 'Métrica 8 (IPTRE)'!$C$6 &lt;= 1)</xm:f>
+            <xm:f>AND('Métrica 8 (PTE)'!$C$6 &gt;= 0.86, 'Métrica 8 (PTE)'!$C$6 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14709,8 +14956,28 @@
           <xm:sqref>E11:G11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{FC16A2A1-A6B0-4D9D-846E-DA8E2DD3762A}">
+            <xm:f>AND('Métrica 9 (PEE)'!$C$6 &gt;= 0, 'Métrica 9 (PEE)'!$C$6 &lt;= 0.15)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF00B050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{11904931-83C5-4391-94B3-6B12C4172EC0}">
+            <xm:f>AND('Métrica 9 (PEE)'!$C$6 &gt;= 0.16, 'Métrica 9 (PEE)'!$C$6 &lt;= 0.5)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
           <x14:cfRule type="expression" priority="3" id="{1D90DAA3-72E9-44DD-B974-52375D85308D}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.51, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.85)</xm:f>
+            <xm:f>AND('Métrica 9 (PEE)'!$C$6 &gt;= 0.51, 'Métrica 9 (PEE)'!$C$6 &lt;= 0.85)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -14720,31 +14987,11 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="4" id="{5AD5D496-0058-4E7B-BE6B-50A049BD09A4}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.86, 'Métrica 9 (IPEET)'!$C$6 &lt;= 1)</xm:f>
+            <xm:f>AND('Métrica 9 (PEE)'!$C$6 &gt;= 0.86, 'Métrica 9 (PEE)'!$C$6 &lt;= 1)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
                   <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="1" id="{FC16A2A1-A6B0-4D9D-846E-DA8E2DD3762A}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.15)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF00B050"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{11904931-83C5-4391-94B3-6B12C4172EC0}">
-            <xm:f>AND('Métrica 9 (IPEET)'!$C$6 &gt;= 0.16, 'Métrica 9 (IPEET)'!$C$6 &lt;= 0.5)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FF92D050"/>
                 </patternFill>
               </fill>
             </x14:dxf>
@@ -14762,7 +15009,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14775,34 +15022,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14816,54 +15063,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5">
@@ -14883,16 +15130,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -15023,10 +15270,275 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D608818-CE3C-443A-8070-25523E95D70D}">
+  <dimension ref="B2:H61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" customWidth="1"/>
+    <col min="6" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="F5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5">
+        <f>IF(AND(ISNUMBER(C5),ISNUMBER(C6),(C5&lt;&gt;0),(C6&lt;&gt;0)), (C5/C6), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>D7*PI()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <f>COS(C46)*-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SIN(C46)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G59" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A86615-797A-4B26-B369-A53645D897F9}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15044,29 +15556,29 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15080,54 +15592,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5">
@@ -15147,280 +15659,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1">
-        <f>COS(B45)*-1</f>
-        <v>-1</v>
-      </c>
-      <c r="C50" s="1">
-        <f>SIN(B45)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="7"/>
-      <c r="G60" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A86615-797A-4B26-B369-A53645D897F9}">
-  <dimension ref="A1:G60"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="5">
-        <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <f>C6*PI()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -15554,7 +15802,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15572,29 +15820,29 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15608,54 +15856,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5">
@@ -15675,16 +15923,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -15815,10 +16063,274 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401EE79E-A552-409B-9226-7B1865FC46D7}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="B2:H61"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" customWidth="1"/>
+    <col min="6" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5">
+        <f>IF(AND(ISNUMBER(C5),ISNUMBER(C6),(C5&lt;&gt;0),(C6&lt;&gt;0)), (C5/C6), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <f>D7*PI()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <f>COS(C46)*-1</f>
+        <v>-1</v>
+      </c>
+      <c r="D51" s="1">
+        <f>SIN(C46)</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G52" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G53" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G54" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G56" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G57" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G58" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G59" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G60" s="7">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="G61" s="7"/>
+      <c r="H61" s="1">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92C91F-727B-4AB3-85A6-05FA1046D236}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15831,34 +16343,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -15872,318 +16384,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="22"/>
+        <v>68</v>
+      </c>
+      <c r="B4" s="15">
+        <v>45292</v>
+      </c>
+      <c r="C4" s="26"/>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="5">
-        <f>IF(AND(ISNUMBER(B4),ISNUMBER(B5),(B4&lt;&gt;0),(B5&lt;&gt;0)), (B4/B5), 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
-        <f>C6*PI()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1">
-        <v>0</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="F49" s="7">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="1">
-        <f>COS(B45)*-1</f>
-        <v>-1</v>
-      </c>
-      <c r="C50" s="1">
-        <f>SIN(B45)</f>
-        <v>0</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="G58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="7">
-        <v>1</v>
-      </c>
-      <c r="G59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F60" s="7"/>
-      <c r="G60" s="1">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92C91F-727B-4AB3-85A6-05FA1046D236}">
-  <dimension ref="A1:G61"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" customWidth="1"/>
-    <col min="5" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="20.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="E1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="E2" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="15">
-        <v>45292</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="E4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="B5" s="15">
         <v>45292</v>
       </c>
       <c r="C5" s="27"/>
       <c r="E5" s="11" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B6" s="13">
         <v>0</v>
@@ -16195,7 +16443,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="14">
@@ -16215,16 +16463,16 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -16358,7 +16606,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16371,34 +16619,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16412,54 +16660,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5">
@@ -16479,16 +16727,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -16622,7 +16870,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16635,34 +16883,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16676,54 +16924,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B6" s="29"/>
       <c r="C6" s="5">
@@ -16743,16 +16991,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -16886,7 +17134,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16899,34 +17147,34 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="E1" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -16940,54 +17188,54 @@
         <v>7</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4">
         <v>0</v>
       </c>
       <c r="C4" s="22"/>
       <c r="E4" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="22"/>
       <c r="E5" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="5">
@@ -17007,16 +17255,16 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
